--- a/レビュー記録票/プロジェクトリプライシステム_レビュー記録票＿クラス建立＿1.xlsx
+++ b/レビュー記録票/プロジェクトリプライシステム_レビュー記録票＿クラス建立＿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>IO関連図の備考中の"前のページから持ってくる"は"前のページから導入された"に変えました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -589,37 +593,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +665,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,90 +728,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -734,6 +735,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1039,248 +1043,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14:AK14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15:AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="31" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="33" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="43" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="43" t="s">
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="28">
+        <v>44307</v>
+      </c>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="31" t="s">
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="31" t="s">
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="32">
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="22">
         <f>AK4*2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1499,868 +1507,874 @@
       <c r="AY8" s="4"/>
     </row>
     <row r="9" spans="1:51" s="7" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="45" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="47"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="34"/>
     </row>
     <row r="10" spans="1:51" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="13" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="13" t="s">
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="22" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="13" t="s">
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="48" t="s">
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="19" t="s">
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
     </row>
     <row r="11" spans="1:51" s="7" customFormat="1" ht="13.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
     </row>
     <row r="12" spans="1:51" s="7" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="54" t="s">
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="11">
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="17">
         <v>1</v>
       </c>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11" t="s">
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="48">
+        <v>44307</v>
+      </c>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
     </row>
     <row r="13" spans="1:51" s="7" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="36" t="s">
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="9">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="12">
         <v>1</v>
       </c>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="26" t="s">
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="47">
+        <v>44307</v>
+      </c>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
     </row>
     <row r="14" spans="1:51" s="7" customFormat="1" ht="51.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="17">
         <v>3</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17">
         <v>2</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="26" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="28" t="s">
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="11">
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="17">
         <v>1</v>
       </c>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11" t="s">
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="48">
+        <v>44307</v>
+      </c>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
     </row>
     <row r="15" spans="1:51" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
     </row>
     <row r="16" spans="1:51" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
     </row>
     <row r="17" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>7</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
     </row>
     <row r="19" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>9</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
     </row>
     <row r="20" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
     </row>
     <row r="21" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>11</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
     </row>
     <row r="22" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>12</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
     </row>
     <row r="23" spans="1:50" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <v>13</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
     </row>
     <row r="24" spans="1:50" s="7" customFormat="1" ht="12.6" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:50" s="7" customFormat="1" ht="12.6" x14ac:dyDescent="0.3"/>
@@ -2370,29 +2384,95 @@
     <row r="29" spans="1:50" s="7" customFormat="1" ht="12.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E14:T14"/>
-    <mergeCell ref="X14:AK14"/>
-    <mergeCell ref="X15:AK15"/>
-    <mergeCell ref="X16:AK16"/>
-    <mergeCell ref="X17:AK17"/>
-    <mergeCell ref="X18:AK18"/>
-    <mergeCell ref="X19:AK19"/>
-    <mergeCell ref="X20:AK20"/>
-    <mergeCell ref="E15:T15"/>
-    <mergeCell ref="E16:T16"/>
-    <mergeCell ref="E17:T17"/>
-    <mergeCell ref="E18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="AU15:AX15"/>
-    <mergeCell ref="AU16:AX16"/>
-    <mergeCell ref="AU17:AX17"/>
-    <mergeCell ref="AU18:AX18"/>
-    <mergeCell ref="AU19:AX19"/>
-    <mergeCell ref="AU20:AX20"/>
-    <mergeCell ref="AU21:AX21"/>
-    <mergeCell ref="AU22:AX22"/>
-    <mergeCell ref="AU23:AX23"/>
+    <mergeCell ref="AQ23:AT23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AQ21:AT21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AQ22:AT22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="X21:AK21"/>
+    <mergeCell ref="X22:AK22"/>
+    <mergeCell ref="X23:AK23"/>
+    <mergeCell ref="AQ19:AT19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AQ20:AT20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AQ18:AT18"/>
+    <mergeCell ref="AQ16:AT16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AN10:AP11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="AL10:AM11"/>
+    <mergeCell ref="AQ13:AT13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AQ14:AT14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="X12:AK12"/>
+    <mergeCell ref="X10:AK11"/>
+    <mergeCell ref="E10:T11"/>
+    <mergeCell ref="E12:T12"/>
+    <mergeCell ref="E13:T13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:AF4"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E19:T19"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E23:T23"/>
+    <mergeCell ref="U10:W11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X13:AK13"/>
     <mergeCell ref="A1:AX2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2417,95 +2497,29 @@
     <mergeCell ref="AU14:AX14"/>
     <mergeCell ref="AQ10:AT11"/>
     <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:AF4"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E19:T19"/>
-    <mergeCell ref="E20:T20"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="E23:T23"/>
-    <mergeCell ref="U10:W11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X13:AK13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ15:AT15"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AQ12:AT12"/>
-    <mergeCell ref="AN10:AP11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="AL10:AM11"/>
-    <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AQ14:AT14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="X12:AK12"/>
-    <mergeCell ref="X10:AK11"/>
-    <mergeCell ref="E10:T11"/>
-    <mergeCell ref="E12:T12"/>
-    <mergeCell ref="E13:T13"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AQ18:AT18"/>
-    <mergeCell ref="AQ16:AT16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AQ19:AT19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AQ20:AT20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AQ23:AT23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AQ22:AT22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="X21:AK21"/>
-    <mergeCell ref="X22:AK22"/>
-    <mergeCell ref="X23:AK23"/>
+    <mergeCell ref="AU15:AX15"/>
+    <mergeCell ref="AU16:AX16"/>
+    <mergeCell ref="AU17:AX17"/>
+    <mergeCell ref="AU18:AX18"/>
+    <mergeCell ref="AU19:AX19"/>
+    <mergeCell ref="AU20:AX20"/>
+    <mergeCell ref="AU21:AX21"/>
+    <mergeCell ref="AU22:AX22"/>
+    <mergeCell ref="AU23:AX23"/>
+    <mergeCell ref="E14:T14"/>
+    <mergeCell ref="X14:AK14"/>
+    <mergeCell ref="X15:AK15"/>
+    <mergeCell ref="X16:AK16"/>
+    <mergeCell ref="X17:AK17"/>
+    <mergeCell ref="X18:AK18"/>
+    <mergeCell ref="X19:AK19"/>
+    <mergeCell ref="X20:AK20"/>
+    <mergeCell ref="E15:T15"/>
+    <mergeCell ref="E16:T16"/>
+    <mergeCell ref="E17:T17"/>
+    <mergeCell ref="E18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="U14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
